--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kurminowski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kurminowski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,382 +463,909 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:20:21.18</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45684.59115486111</v>
+      </c>
+      <c r="B4" t="n">
+        <v>475.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.104219096047534</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45684.59195231481</v>
+      </c>
+      <c r="B5" t="n">
+        <v>544.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.930859497615269</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45684.59379837963</v>
+      </c>
+      <c r="B6" t="n">
+        <v>704.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.81770658493042</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45684.59115254629</v>
+      </c>
+      <c r="B7" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.056578295571462</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59379606482</v>
+      </c>
+      <c r="B8" t="n">
+        <v>703.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.633463025093079</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59401944444</v>
+      </c>
+      <c r="B9" t="n">
+        <v>723.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.420666234833852</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59746736111</v>
+      </c>
+      <c r="B10" t="n">
         <v>1021.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C10" t="n">
         <v>13.91</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D10" t="n">
         <v>4.529195376804894</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:22:25.48</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59890601852</v>
+      </c>
+      <c r="B11" t="n">
         <v>1145.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C11" t="n">
         <v>13.96</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D11" t="n">
         <v>4.76598743030003</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:45.88</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.60191990741</v>
+      </c>
+      <c r="B12" t="n">
         <v>1405.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C12" t="n">
         <v>14.85</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D12" t="n">
         <v>4.633814913885933</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:20:20.88</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59746388889</v>
+      </c>
+      <c r="B13" t="n">
         <v>1020.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C13" t="n">
         <v>8.66</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D13" t="n">
         <v>3.780123114585876</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:26:45.58</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.60191643518</v>
+      </c>
+      <c r="B14" t="n">
         <v>1405.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C14" t="n">
         <v>9.34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D14" t="n">
         <v>3.636793834822519</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:37:34.48</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2054.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.053363425391061</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:42.05</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60288518519</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1489.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.464750153677804</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45685.64979224537</v>
+      </c>
+      <c r="B16" t="n">
         <v>1257</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C16" t="n">
         <v>13.48</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D16" t="n">
         <v>4.585632290158954</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:46.15</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45685.64983969907</v>
+      </c>
+      <c r="B17" t="n">
         <v>1261.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C17" t="n">
         <v>14.19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>5.40749444280352</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:51:00.55</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45685.66042303241</v>
+      </c>
+      <c r="B18" t="n">
         <v>2175.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C18" t="n">
         <v>12.87</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D18" t="n">
         <v>4.543479919433595</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:41.85</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45685.64978993055</v>
+      </c>
+      <c r="B19" t="n">
         <v>1256.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C19" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D19" t="n">
         <v>4.082997901099071</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:45.95</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64983738426</v>
+      </c>
+      <c r="B20" t="n">
         <v>1260.9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C20" t="n">
         <v>7.95</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D20" t="n">
         <v>3.360003318105426</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:51:00.35</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.66042071759</v>
+      </c>
+      <c r="B21" t="n">
         <v>2175.3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C21" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D21" t="n">
         <v>3.452775972230094</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:42:45.59</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.67012094907</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3013.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.532313176563807</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.67027604167</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3026.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.489612885883876</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.67605960649</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3526.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.842985357557024</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.66946122685</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2956.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.075016839163645</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.67027372685</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3026.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.981690219470433</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.68411863426</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4222.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.995159932545254</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.47803344907</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1936.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.970919694219317</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.47898599537</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2018.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.92757977758135</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.47945706019</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2059.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.198047024863107</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.47803229166</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1936.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.07979691028595</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47855081018</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1981.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.49568339756557</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47898136574</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2018.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.738625117710658</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.48429039352</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2477</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.63463054384504</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.48802766204</v>
+      </c>
+      <c r="B35" t="n">
         <v>2799.9</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C35" t="n">
         <v>13.89</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D35" t="n">
         <v>4.436062438147406</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:43:22.79</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6437.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.915128639766147</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:46:16.39</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6610.7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.654390232903618</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:42:45.29</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.48805196759</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2802</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.995907340730942</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.4842880787</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2476.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.270345296178545</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.4871931713</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2727.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.836543151310511</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.48802418981</v>
+      </c>
+      <c r="B39" t="n">
         <v>2799.6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C39" t="n">
         <v>8.67</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D39" t="n">
         <v>3.367872629846845</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:43:22.49</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6436.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.319909811019897</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:46:16.09</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6610.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.398236376898631</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
